--- a/Лаб3-4/биграммы.xlsx
+++ b/Лаб3-4/биграммы.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90024B7F-4489-4922-846B-E1419DC4361C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,86 +185,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -282,7 +229,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="141414"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -539,345 +486,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.52</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.02</v>
       </c>
-      <c r="C2">
-        <v>0.4</v>
-      </c>
-      <c r="D2">
-        <v>0.03</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.02</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1">
         <v>0.01</v>
       </c>
+      <c r="F2" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>$A$2*A$2</f>
-        <v>0.27040000000000003</v>
-      </c>
-      <c r="C3" t="s">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>$B$2*$A$2</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="E3" t="s">
+        <v>2E-3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>$C$2*A$2</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="G3" t="s">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>$D$2*O3</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="I3" t="s">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>$E$2*O3</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="K3" t="s">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f>$F$2*O3</f>
-        <v>5.2000000000000006E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="O3">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>$A$2*B$2</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="C4" t="s">
+        <v>2E-3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>$B$2*$B$2</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <f>$C$2*B$2</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H8" si="0">$D$2*O4</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <f>$C$2*B$2</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H8" si="0">$D$2*O4</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J8" si="1">$E$2*O4</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K4" t="s">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L8" si="2">$F$2*O4</f>
-        <v>2.0000000000000001E-4</v>
+        <v>1.38E-2</v>
       </c>
       <c r="O4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>$A$2*C$2</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="C5" t="s">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>$B$2*$C$2</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>$C$2*C$2</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="G5" t="s">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I5" t="s">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K5" t="s">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0.1104</v>
       </c>
       <c r="O5">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>$A$2*D$2</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="C6" t="s">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>$B$2*$D$2</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E6" t="s">
+        <v>2E-3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>$C$2*D$2</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="G6" t="s">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="I6" t="s">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <f>$A$2*E$2</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <f>$B$2*$E$2</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <f>$C$2*E$2</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <f>$A$2*F$2</f>
-        <v>5.2000000000000006E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <f>$B$2*$F$2</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <f>$C$2*F$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <f>$A$2*E$2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$B$2*$E$2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <f>$C$2*E$2</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1">
+        <f>$F$2*O7</f>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <f>$A$2*F$2</f>
+        <v>1.38E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$B$2*$F$2</f>
+        <v>6.8999999999999992E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <f>$C$2*F$2</f>
+        <v>0.1104</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>1E-4</v>
+      <c r="L8" s="1">
+        <f>$F$2*O8</f>
+        <v>0.47609999999999991</v>
       </c>
       <c r="O8">
-        <v>0.01</v>
+        <v>0.69</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>-((SUM(B3:B7,D3:D8,F3:F8,H3:H8,J3:J8)+SUM(L3:L8))*LOG((SUM(B3:B7,D3:D8,F3:F8,H3:H8,J3:J8)+SUM(L3:L8)),2))</f>
-        <v>7.4824750784137266E-3</v>
-      </c>
+        <v>9.9240237864416894E-2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
